--- a/ROM Spreadsheet.xlsx
+++ b/ROM Spreadsheet.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewmellen/COMP1200Project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26819"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="2760" windowWidth="23740" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="2260" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Hex Address</t>
   </si>
@@ -99,6 +94,18 @@
   </si>
   <si>
     <t>Hex 1</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>Load In to A</t>
+  </si>
+  <si>
+    <t>OUTPUT</t>
+  </si>
+  <si>
+    <t>Move A to Out</t>
   </si>
 </sst>
 </file>
@@ -193,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -228,7 +235,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -405,7 +412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -413,20 +420,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -482,7 +490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -541,7 +549,7 @@
         <v>04</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="B3" t="str">
         <f>DEC2HEX(HEX2DEC(B2)+1,2)</f>
         <v>01</v>
@@ -590,21 +598,21 @@
         <v>15</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q33" si="0">BIN2HEX(CONCATENATE(DEC2BIN(D3,5),E3,F3,G3),2)</f>
+        <f t="shared" ref="Q3:Q17" si="0">BIN2HEX(CONCATENATE(DEC2BIN(D3,5),E3,F3,G3),2)</f>
         <v>11</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R33" si="1">BIN2HEX(CONCATENATE(H3,I3,J3,K3,L3,M3,N3,O3),2)</f>
+        <f t="shared" ref="R3:R17" si="1">BIN2HEX(CONCATENATE(H3,I3,J3,K3,L3,M3,N3,O3),2)</f>
         <v>C0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B33" si="2">DEC2HEX(HEX2DEC(B3)+1,2)</f>
+        <f t="shared" ref="B4:B17" si="2">DEC2HEX(HEX2DEC(B3)+1,2)</f>
         <v>02</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C32" si="3">C3+1</f>
+        <f t="shared" ref="C4:C17" si="3">C3+1</f>
         <v>2</v>
       </c>
       <c r="D4">
@@ -655,7 +663,7 @@
         <v>C8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="B5" t="str">
         <f t="shared" si="2"/>
         <v>03</v>
@@ -712,7 +720,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -772,7 +780,10 @@
         <v>00</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
       <c r="B7" t="str">
         <f t="shared" si="2"/>
         <v>05</v>
@@ -781,16 +792,58 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
       <c r="Q7" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
       <c r="R7" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
       <c r="B8" t="str">
         <f t="shared" si="2"/>
         <v>06</v>
@@ -799,16 +852,55 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>28</v>
+      </c>
       <c r="Q8" t="str">
         <f t="shared" si="0"/>
         <v>00</v>
       </c>
       <c r="R8" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="B9" t="str">
         <f t="shared" si="2"/>
         <v>07</v>
@@ -826,7 +918,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="B10" t="str">
         <f t="shared" si="2"/>
         <v>08</v>
@@ -844,7 +936,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="B11" t="str">
         <f t="shared" si="2"/>
         <v>09</v>
@@ -862,7 +954,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="B12" t="str">
         <f t="shared" si="2"/>
         <v>0A</v>
@@ -880,7 +972,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="B13" t="str">
         <f t="shared" si="2"/>
         <v>0B</v>
@@ -898,7 +990,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="B14" t="str">
         <f t="shared" si="2"/>
         <v>0C</v>
@@ -916,7 +1008,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="B15" t="str">
         <f t="shared" si="2"/>
         <v>0D</v>
@@ -934,7 +1026,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="B16" t="str">
         <f t="shared" si="2"/>
         <v>0E</v>
@@ -952,7 +1044,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18">
       <c r="B17" t="str">
         <f t="shared" si="2"/>
         <v>0F</v>
@@ -966,294 +1058,6 @@
         <v>00</v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" t="str">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="Q18" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R18" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" t="str">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="Q19" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R19" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" t="str">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="Q20" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R20" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" t="str">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="Q21" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R21" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" t="str">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="Q22" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R22" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" t="str">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="Q23" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R23" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" t="str">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="Q24" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R24" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" t="str">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="Q25" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R25" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" t="str">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="Q26" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R26" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" t="str">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="Q27" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R27" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" t="str">
-        <f t="shared" si="2"/>
-        <v>1A</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="Q28" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R28" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" t="str">
-        <f t="shared" si="2"/>
-        <v>1B</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="Q29" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R29" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" t="str">
-        <f t="shared" si="2"/>
-        <v>1C</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="Q30" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R30" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" t="str">
-        <f t="shared" si="2"/>
-        <v>1D</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R31" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" t="str">
-        <f t="shared" si="2"/>
-        <v>1E</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="Q32" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R32" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" t="str">
-        <f t="shared" si="2"/>
-        <v>1F</v>
-      </c>
-      <c r="C33">
-        <f>C32+1</f>
-        <v>31</v>
-      </c>
-      <c r="Q33" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R33" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
@@ -1261,5 +1065,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/ROM Spreadsheet.xlsx
+++ b/ROM Spreadsheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10120" yWindow="920" windowWidth="26960" windowHeight="17380" tabRatio="500"/>
+    <workbookView xWindow="9420" yWindow="2960" windowWidth="26960" windowHeight="17380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>Hex Address</t>
   </si>
@@ -180,6 +180,45 @@
   </si>
   <si>
     <t>Halt execution</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>JUMP</t>
+  </si>
+  <si>
+    <t>LOAD A</t>
+  </si>
+  <si>
+    <t>MOV B,A</t>
+  </si>
+  <si>
+    <t>ADD A,B</t>
+  </si>
+  <si>
+    <t>A AND B</t>
+  </si>
+  <si>
+    <t>A AND B, Store in Reg A</t>
+  </si>
+  <si>
+    <t>A AND B HELPER</t>
+  </si>
+  <si>
+    <t>A OR B</t>
+  </si>
+  <si>
+    <t>A OR B, Store in Reg B</t>
+  </si>
+  <si>
+    <t>A OR B HELPER</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>0B</t>
   </si>
 </sst>
 </file>
@@ -195,15 +234,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -211,12 +262,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,7 +596,7 @@
     <col min="17" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -564,7 +652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -623,7 +711,7 @@
         <v>04</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -682,8 +770,14 @@
         <f t="shared" ref="R3:R33" si="1">BIN2HEX(CONCATENATE(H3,I3,J3,K3,L3,M3,N3,O3),2)</f>
         <v>00</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -742,8 +836,15 @@
         <f t="shared" si="1"/>
         <v>E0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T4" s="4" t="str">
+        <f>HEX2BIN(1, 2)</f>
+        <v>01</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -802,8 +903,15 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T5" s="3" t="str">
+        <f>DEC2HEX(T4+1,2)</f>
+        <v>02</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -862,8 +970,15 @@
         <f t="shared" si="1"/>
         <v>A4</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T6" s="3" t="str">
+        <f t="shared" ref="T6:T12" si="4">DEC2HEX(T5+1,2)</f>
+        <v>03</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -922,8 +1037,15 @@
         <f t="shared" si="1"/>
         <v>A4</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T7" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>04</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -982,8 +1104,15 @@
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>05</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1042,8 +1171,15 @@
         <f t="shared" si="1"/>
         <v>02</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>06</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1102,8 +1238,15 @@
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1162,8 +1305,18 @@
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T11" s="3" t="str">
+        <f>DEC2HEX(T10+1,2)</f>
+        <v>08</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
       <c r="B12" t="str">
         <f t="shared" si="2"/>
         <v>0A</v>
@@ -1172,16 +1325,65 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>57</v>
+      </c>
       <c r="Q12" t="str">
         <f t="shared" si="0"/>
-        <v>00</v>
+        <v>AB</v>
       </c>
       <c r="R12" t="str">
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T12" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>09</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
       <c r="B13" t="str">
         <f t="shared" si="2"/>
         <v>0B</v>
@@ -1190,16 +1392,61 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
+      <c r="D13">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>60</v>
+      </c>
       <c r="Q13" t="str">
         <f t="shared" si="0"/>
-        <v>00</v>
+        <v>B3</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
         <f t="shared" si="2"/>
         <v>0C</v>
@@ -1216,8 +1463,14 @@
         <f t="shared" si="1"/>
         <v>00</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15" t="str">
         <f t="shared" si="2"/>
         <v>0D</v>
@@ -1235,7 +1488,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" t="str">
         <f t="shared" si="2"/>
         <v>0E</v>
@@ -1431,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1448,7 +1701,7 @@
       </c>
       <c r="R20" t="str">
         <f t="shared" si="1"/>
-        <v>A1</v>
+        <v>A5</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -1572,6 +1825,9 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
       <c r="B23" t="str">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1580,16 +1836,58 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>29</v>
+      </c>
       <c r="Q23" t="str">
         <f t="shared" si="0"/>
-        <v>00</v>
+        <v>03</v>
       </c>
       <c r="R23" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
+        <v>01</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
       <c r="B24" t="str">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1598,13 +1896,52 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>29</v>
+      </c>
       <c r="Q24" t="str">
         <f t="shared" si="0"/>
-        <v>00</v>
+        <v>03</v>
       </c>
       <c r="R24" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">

--- a/ROM Spreadsheet.xlsx
+++ b/ROM Spreadsheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>Hex Address</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>0B</t>
+  </si>
+  <si>
+    <t>Skip Next Line</t>
   </si>
 </sst>
 </file>
@@ -584,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29:R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1657,7 +1660,7 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1684,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1697,11 +1700,11 @@
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="0"/>
-        <v>00</v>
+        <v>D8</v>
       </c>
       <c r="R20" t="str">
         <f t="shared" si="1"/>
-        <v>A5</v>
+        <v>A1</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -2017,6 +2020,9 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
       <c r="B29" t="str">
         <f t="shared" si="2"/>
         <v>1B</v>
@@ -2025,16 +2031,55 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
       <c r="Q29" t="str">
         <f t="shared" si="0"/>
-        <v>00</v>
+        <v>E1</v>
       </c>
       <c r="R29" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
+        <v>C0</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
       <c r="B30" t="str">
         <f t="shared" si="2"/>
         <v>1C</v>
@@ -2043,13 +2088,49 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
       <c r="Q30" t="str">
         <f t="shared" si="0"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="R30" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">

--- a/ROM Spreadsheet.xlsx
+++ b/ROM Spreadsheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="2960" windowWidth="26960" windowHeight="17380" tabRatio="500"/>
+    <workbookView xWindow="4640" yWindow="3380" windowWidth="26960" windowHeight="17380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t>Hex Address</t>
   </si>
@@ -152,9 +152,6 @@
     <t>**************</t>
   </si>
   <si>
-    <t>LOAD HELPER</t>
-  </si>
-  <si>
     <t>Load next on RAM to PC</t>
   </si>
   <si>
@@ -222,6 +219,78 @@
   </si>
   <si>
     <t>Skip Next Line</t>
+  </si>
+  <si>
+    <t>INC B</t>
+  </si>
+  <si>
+    <t>INC B HELPER</t>
+  </si>
+  <si>
+    <t>Increment Reg B by 1</t>
+  </si>
+  <si>
+    <t>Cycle Bwr</t>
+  </si>
+  <si>
+    <t>SUB A, B</t>
+  </si>
+  <si>
+    <t>SUB A, B HELPER</t>
+  </si>
+  <si>
+    <t>A-B, Store in Reg B</t>
+  </si>
+  <si>
+    <t>LOAD B, #&lt;value&gt;</t>
+  </si>
+  <si>
+    <t>LOAD A HELPER</t>
+  </si>
+  <si>
+    <t>LOAD B HELPER</t>
+  </si>
+  <si>
+    <t>Load next on RAM to Reg B</t>
+  </si>
+  <si>
+    <t>Write to B</t>
+  </si>
+  <si>
+    <t>MOV A, B</t>
+  </si>
+  <si>
+    <t>Move B into Reg A</t>
+  </si>
+  <si>
+    <t>MOV A, B HELPER</t>
+  </si>
+  <si>
+    <t>Skip line for load</t>
+  </si>
+  <si>
+    <t>Adds one to PC before (main)</t>
+  </si>
+  <si>
+    <t>LOAD B</t>
+  </si>
+  <si>
+    <t>MOV A,B</t>
+  </si>
+  <si>
+    <t>SUB A,B</t>
+  </si>
+  <si>
+    <t>0C</t>
+  </si>
+  <si>
+    <t>0D</t>
+  </si>
+  <si>
+    <t>0E</t>
+  </si>
+  <si>
+    <t>0F</t>
   </si>
 </sst>
 </file>
@@ -257,18 +326,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -292,22 +352,62 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29:R30"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -766,18 +866,18 @@
         <v>21</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q33" si="0">BIN2HEX(CONCATENATE(DEC2BIN(D3,5),E3,F3,G3),2)</f>
+        <f t="shared" ref="Q3:Q32" si="0">BIN2HEX(CONCATENATE(DEC2BIN(D3,5),E3,F3,G3),2)</f>
         <v>00</v>
       </c>
       <c r="R3" t="str">
         <f t="shared" ref="R3:R33" si="1">BIN2HEX(CONCATENATE(H3,I3,J3,K3,L3,M3,N3,O3),2)</f>
         <v>00</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>51</v>
+      <c r="U3" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -839,11 +939,11 @@
         <f t="shared" si="1"/>
         <v>E0</v>
       </c>
-      <c r="T4" s="4" t="str">
+      <c r="T4" s="3" t="str">
         <f>HEX2BIN(1, 2)</f>
         <v>01</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -906,11 +1006,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="T5" s="3" t="str">
+      <c r="T5" s="1" t="str">
         <f>DEC2HEX(T4+1,2)</f>
         <v>02</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -963,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q6" t="str">
         <f t="shared" si="0"/>
@@ -973,11 +1073,11 @@
         <f t="shared" si="1"/>
         <v>A4</v>
       </c>
-      <c r="T6" s="3" t="str">
+      <c r="T6" s="1" t="str">
         <f t="shared" ref="T6:T12" si="4">DEC2HEX(T5+1,2)</f>
         <v>03</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1030,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="0"/>
@@ -1040,17 +1140,17 @@
         <f t="shared" si="1"/>
         <v>A4</v>
       </c>
-      <c r="T7" s="3" t="str">
+      <c r="T7" s="1" t="str">
         <f t="shared" si="4"/>
         <v>04</v>
       </c>
-      <c r="U7" s="3" t="s">
-        <v>52</v>
+      <c r="U7" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="2"/>
@@ -1070,16 +1170,16 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1088,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1097,27 +1197,27 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R8" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="T8" s="3" t="str">
+        <v>A4</v>
+      </c>
+      <c r="T8" s="1" t="str">
         <f t="shared" si="4"/>
         <v>05</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>53</v>
+      <c r="U8" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="2"/>
@@ -1128,7 +1228,7 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1137,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1158,33 +1258,33 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="0"/>
+        <v>A1</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
-      <c r="R9" t="str">
-        <f t="shared" si="1"/>
-        <v>02</v>
-      </c>
-      <c r="T9" s="3" t="str">
+      <c r="T9" s="1" t="str">
         <f t="shared" si="4"/>
         <v>06</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>30</v>
+      <c r="U9" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="2"/>
@@ -1195,19 +1295,19 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1231,27 +1331,27 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="0"/>
-        <v>A2</v>
+        <v>A9</v>
       </c>
       <c r="R10" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="T10" s="3" t="str">
+        <v>80</v>
+      </c>
+      <c r="T10" s="1" t="str">
         <f t="shared" si="4"/>
         <v>07</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>54</v>
+      <c r="U10" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="2"/>
@@ -1262,7 +1362,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1292,33 +1392,33 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>00</v>
       </c>
       <c r="R11" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="T11" s="3" t="str">
+        <v>02</v>
+      </c>
+      <c r="T11" s="1" t="str">
         <f>DEC2HEX(T10+1,2)</f>
         <v>08</v>
       </c>
-      <c r="U11" s="3" t="s">
-        <v>55</v>
+      <c r="U11" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="2"/>
@@ -1329,19 +1429,19 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1365,169 +1465,355 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="0"/>
-        <v>AB</v>
+        <v>B0</v>
       </c>
       <c r="R12" t="str">
         <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="T12" s="2" t="str">
+        <v>80</v>
+      </c>
+      <c r="T12" s="1" t="str">
         <f t="shared" si="4"/>
         <v>09</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>33</v>
+      <c r="U12" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="2"/>
+        <v>0B</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="0"/>
+        <v>BA</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="2"/>
+        <v>0C</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="0"/>
+        <v>C2</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="2"/>
+        <v>0D</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="2"/>
+        <v>0E</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="0"/>
+        <v>CB</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="1"/>
+        <v>00</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="2"/>
+        <v>0F</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="str">
-        <f t="shared" si="2"/>
-        <v>0B</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q13" t="str">
-        <f t="shared" si="0"/>
-        <v>B3</v>
-      </c>
-      <c r="R13" t="str">
+      <c r="Q17" t="str">
+        <f t="shared" si="0"/>
+        <v>D3</v>
+      </c>
+      <c r="R17" t="str">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="T13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B14" t="str">
-        <f t="shared" si="2"/>
-        <v>0C</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="Q14" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R14" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B15" t="str">
-        <f t="shared" si="2"/>
-        <v>0D</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="Q15" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R15" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B16" t="str">
-        <f t="shared" si="2"/>
-        <v>0E</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="Q16" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R16" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B17" t="str">
-        <f t="shared" si="2"/>
-        <v>0F</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="Q17" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R17" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1586,8 +1872,14 @@
         <f t="shared" si="1"/>
         <v>E1</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1647,9 +1939,9 @@
         <v>A8</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="2"/>
@@ -1696,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="0"/>
@@ -1707,9 +1999,9 @@
         <v>A1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="2"/>
@@ -1720,7 +2012,7 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1729,16 +2021,16 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1750,26 +2042,26 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="0"/>
-        <v>01</v>
+        <v>D8</v>
       </c>
       <c r="R21" t="str">
         <f t="shared" si="1"/>
-        <v>01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="2"/>
@@ -1786,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1820,208 +2112,376 @@
       </c>
       <c r="Q22" t="str">
         <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="1"/>
+        <v>01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="0"/>
         <v>02</v>
       </c>
-      <c r="R22" t="str">
+      <c r="R25" t="str">
         <f t="shared" si="1"/>
         <v>01</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
         <v>29</v>
       </c>
-      <c r="Q23" t="str">
+      <c r="Q26" t="str">
+        <f t="shared" si="0"/>
+        <v>02</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" t="str">
         <f t="shared" si="0"/>
         <v>03</v>
       </c>
-      <c r="R23" t="str">
+      <c r="R27" t="str">
         <f t="shared" si="1"/>
         <v>01</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="2"/>
+        <v>1A</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
         <v>29</v>
       </c>
-      <c r="Q24" t="str">
+      <c r="Q28" t="str">
         <f t="shared" si="0"/>
         <v>03</v>
       </c>
-      <c r="R24" t="str">
+      <c r="R28" t="str">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B25" t="str">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="Q25" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R25" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B26" t="str">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="Q26" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R26" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B27" t="str">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="Q27" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R27" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B28" t="str">
-        <f t="shared" si="2"/>
-        <v>1A</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="Q28" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="R28" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="2"/>
@@ -2067,6 +2527,9 @@
       <c r="O29">
         <v>0</v>
       </c>
+      <c r="P29" t="s">
+        <v>79</v>
+      </c>
       <c r="Q29" t="str">
         <f t="shared" si="0"/>
         <v>E1</v>
@@ -2076,7 +2539,7 @@
         <v>C0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2124,6 +2587,9 @@
       <c r="O30">
         <v>0</v>
       </c>
+      <c r="P30" t="s">
+        <v>80</v>
+      </c>
       <c r="Q30" t="str">
         <f t="shared" si="0"/>
         <v>01</v>
@@ -2133,7 +2599,7 @@
         <v>C8</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2193,7 +2659,7 @@
         <v>C0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2305,7 +2771,7 @@
         <v>18</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="0"/>
+        <f>BIN2HEX(CONCATENATE(DEC2BIN(D33,5),E33,F33,G33),2)</f>
         <v>04</v>
       </c>
       <c r="R33" t="str">
